--- a/mini/python_playwright/output/宝安_1.xlsx
+++ b/mini/python_playwright/output/宝安_1.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltIOczBRlQ4tdPyOeI_fWX-2GrC8eQ31-vzoHwxQ2kZSqMb-5wMTDxlnwWlLjB01uZzq3gjSgxJDPMBR89gGgGhIIH3fu-1V88iyDniJncxFzrLLWJ5tz7h&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27SCSh-UrH954QvT5tW56gc2fChZ74Mah-nuEMWmgxQhQ-cfpORc6zE4ZeMaDxzhDdIdREzHRlTghVuiEXPxl3Ujhp2VCTo0oENFC6EmYnhimZzaNMa9QUT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltIOczBRlQ4tdPyOeI_fWX-2GrC8eQ31-vzoHwxQ2kZSgm1c_BcUqZTof2KUGD6zVVA6NzX2vsgBCbtFGmWsssFNynaUcFyJ2mKuw3pmLpuK2nhEWsMLGGg&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27kquG1IvmRQzlp_6vbDr5R0AV9DGBqlRq7iXZa-IsGjJXoIk_MbOuchZcCBFmFeGjLq1ERbbuAjgoBKLZfiEnIb_gyunpUWSqcbHxGnruH4NjxTSUxFyCM&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltIOczBRlQ4tdPyOeI_fWX-2GrC8eQ31-vzoHwxQ2kZSgm1c_BcUqZTUgU_wu41O8s1KmCp6tY8tB8HYAGurOynlnlb4AAzUTyyHL-ugze-8DlBANAuKj6s&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27kquG1IvmRQzlp_6vbDr5R0AV9DGBqlRq7iXZa-IsGjJXoIk_MbOuc4fNla6HyNze6T7bhC9VJXIxgNxw0fUbLUHt8FjnPlDzXspjJmHlLzhMIE3zpyRt3&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluZoe_fB49RA2lyRSoemd5LmJrbWhkUzg6xTivUx2tol2zJV5Al1WxlBcgphctNykmPNjoG9bpeMXS-12Qpy4zOy2n9oeq0VZ6crfGZGvYp3XcdiVNVkQPO&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27kquG1IvmRQzlp_6vbDr5R0AV9DGBqlRq7iXZa-IsGjJXoIk_MbOuc2gYYOh5ucfAR7CF5z0FUe2kJ3qYUaqA5oV_99xwXKKuCx-nHhF49jgsr1q26V-M5&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluZoe_fB49RA2lyRSoemd5LmJrbWhkUzg6xTivUx2tolxob79jYXaoTs5zObYDpRTSvTe9ppBULSDfS_xU5sSnH1WRA0txrBQ3AWinDxSMbgqaZpg_3yUO_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Iu6ccwbZaoGrBZdGlO0ktcAdc9RHvzzQ02hwzOJxAWc__bxNYaBrXIwqV0dieqaK2SaiadsdhX7RKX1SGBDZWa3iRA6p1RY28g_t37NDuI6ueIgkhDjQb&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluZoe_fB49RA2lyRSoemd5LmJrbWhkUzg6xTivUx2tolxob79jYXaoT1DP0Y307VHaOJUPA34sEJipj44AJjcJSpdRfBXjwWcwqZahwCpktOJSIOePSbN7E&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Iu6ccwbZaoGrBZdGlO0ktcAdc9RHvzzQ02hwzOJxAWc__bxNYaBrXFZ4FWcQI1bDe5fQSd-pfxRrHHnH5xISEQcCDAh-6SzWPOLL4QHPRsyrQUDVrLdFE&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvQdDykQAwPL28KCFV5VTMiBCKH-7Ua3TvNwMwl7U5zr4tv1gTRijaYNFhk_VGFEuUuQEGs85aAGgk5TQT_mojkZtAdM8o5MDppdICWqE4G89-NwUsBahKc&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24Iu6ccwbZaoGrBZdGlO0ktcAdc9RHvzzQ02hwzOJxAWc__bxNYaBrXGa_iroC1_N2qeIdLKloWdGAoJR8YJ2piZimGSmE-fkXDrsBeuKCwd6A2WKSTuCxI&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvQdDykQAwPL28KCFV5VTMiBCKH-7Ua3TvNwMwl7U5zr6t0DGW6XoyNLO7b51fO9WGwn-NCaCyk3801ug0-XFscUmqj5n261D_9gIeIxOm2rs7-C9UhJz0Z&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25CCKpTpSBrM-1EBE1-z65XHwiFs3ct4nB14KaWI9prY7PhONpOpp4kMZq6JJEYOHQk2QBNdQfhOqjoUQKzoNsRR8kC0ntNSjD32AWNNZ5mIt10x8sL219W&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvQdDykQAwPL28KCFV5VTMiBCKH-7Ua3TvNwMwl7U5zrxE3Bi5piw-yeP883LvPGbZ97nlp_SCk7D7bRvubNYkvLqbAMZEBC1T4_2vvPNAl2gaZq4yuRkuh&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25CCKpTpSBrM-1EBE1-z65XHwiFs3ct4nB14KaWI9prY6P4KrT_kqqm8I_8o59VOdiQaQuPoV443trj4h-EO3ww7q6b4tNEDwYGJwXH5eS3DtRg3OwXnrTm&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls7dt_DLVcbs5QXvZriz-vnQ2-O_BPxNjXdgrSYctYLeCNGQmfmg-SiAwJ5Dla4-ICs60PTCpWuxidWuaq8sRQgw82s7mV-IqTbVU7uNxHSZA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25CCKpTpSBrM-1EBE1-z65XHwiFs3ct4nB14KaWI9prYwYzCFt9EWAV0MqfXT1Wgg1vo1-F57AhVycMeP-lPGXC76MA3-RzGT14g_Z8WOvHgA==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls7dt_DLVcbs5QXvZriz-vnQ2-O_BPxNjXdgrSYctYLeFmXpJEMN7wH1dn2cl6jv4p9kyH0wkFS5ACXWkIyObUgfRdWZLMB1iJVsQnuAIr6nHsbKfcAXSrz&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25CCKpTpSBrM-1EBE1-z65XHwiFs3ct4nB14KaWI9prYx3H1rgyb8OkMgrK-VcZpUye8Ch8gP5stzheurlwlOnv7pVUkqIoGE_f4ds1EQWgncshGn1NCLFT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls7dt_DLVcbs5QXvZriz-vnQ2-O_BPxNjXdgrSYctYLeMBK9OLOg2wg4gTgJjiVWXOdcIrBLHZkbTwrHr0y7oSAQELJ1U37FF_JDQuzDT4TnuSnPhzixw5X&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25w19s-KqXb0t_TsFUP4UR12YN-4jIY_SteA2NMEg_sU2KXB6bUIWKfljRKTIKTT7QaVg3Wbrs7oY-7Z-b_c9Z7pqHEgb2cSTIzKGQzpVDpObP93ttr7MwD&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsMgo1ZFvoAUIifdwlh6szpqZ4Qd5gUHSsQRe12v07vx1gKVfyeWDSAIxCDsAwly4tG7W23A0qIaW0ui6dBRD6ZQEr10WXEBFqtm1Amh1ewUg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25w19s-KqXb0t_TsFUP4UR12YN-4jIY_SteA2NMEg_sU41pshodUTCBXDbxT3T3ZJ9ZD39yFYcpqAqi9D74XmVMXqA1enRuRM9BYOFMH039Hg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsMgo1ZFvoAUIifdwlh6szpqZ4Qd5gUHSsQRe12v07vx6q5yzeUEs2Tz8ODF-pRoTcESLCYnzxBTkPxYQFXOTnby-z08zbkOKSmDEJ3f3nvpw-z_ONcALMw&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25w19s-KqXb0t_TsFUP4UR12YN-4jIY_SteA2NMEg_sUxs0ySteuKiutJu1K6IX_Z0Cj8Ur-ba0VH_S0LSxmeGFuD-uvbQwSff4h9khzXafUEdT-5qIV8-1&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsMgo1ZFvoAUIifdwlh6szpqZ4Qd5gUHSsQRe12v07vx6q5yzeUEs2TIiHVsmtgwfjmB54OJJLM-8eO3KZY6dpByYOeo8D3hwETko6BbMnjSg==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27G_Oc_Vyi8IqnhioyGHisQhmQv5-N5pO5iD2vvVd6529LNtfA2Xr_UgUeXmsHTQiMDx5cv4so7JETD2ovSwRDhVCT_dyb6ufvC2oI0EjADLQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluTIYM_0a8X01-kZoPNa-jNgJZsXrvUMKoX0HXN2nLeLGse9bUBfSXz1G5UwXnuYshuhiSUz6yerKBFdLxVAxwcMGSp_Jd2rWBu6DWZpVNy1eFE98QYpnnD&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27G_Oc_Vyi8IqnhioyGHisQhmQv5-N5pO5iD2vvVd6524Mvp7WY_EGqKOKef7knf7-Vx42VnrBuISmrKgge1ASgvjjcK6xDubUs6YG6jSph48w0NwYs4ubv&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluTIYM_0a8X01-kZoPNa-jNgJZsXrvUMKoX0HXN2nLeLB45chs8Oq6iCAAEVXximJ1l_iJJpfSqFYSqG67-xT25MI_VLC-z991qWjER_wlgIw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27G_Oc_Vyi8IqnhioyGHisQhmQv5-N5pO5iD2vvVd6524K9nVcy3_0hN3ehIzAkeUF9gIwk1T1ruFMmdfN8O-XxIyXvOfJJoRcGWqCBSKU0nw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluTIYM_0a8X01-kZoPNa-jNgJZsXrvUMKoX0HXN2nLeLGxuDmodrE6dV8flsTdGoJwVjiKtOoIsPLcLkZ2eurmUR4Zaztg7QyXMJU7siWusTSUQ6PLnuThK&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27G_Oc_Vyi8IqnhioyGHisQhmQv5-N5pO5iD2vvVd6528G-HbfLcZ9VVXhamkKa_1QOV8WyuT0MCxKyLsXOFNLgiino6p0ybPeaB9yYP1RvNbTgBXeqcjMh&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsJ1KW8mwKgApna4n6O9FYV5ddsqoHX2_rVNVrqbxlyt8sldKzSDPTC-DXCH9uD7WXssO0Ear3wd_kh_OyQOHWJpTum_pjQGqOwam1X5N9NbsyEBuwHGXTp&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27BQcpHNAGFKKXOR9GDHGq6vB8AuX1tknrhgd9AeXV69LBm6q_gxBOhACSO4UyNroMD-U55qOocaTiFe9cQrTNVTfMKm9QXQWV5m8MrtEVWhMIPtPfZ8j_e&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsJ1KW8mwKgApna4n6O9FYV5ddsqoHX2_rVNVrqbxlyt8sldKzSDPTCzcVE4ng-w4AvIyvHuFHcPxuL20oJYeOggMfSEqMDaJGfBsfhhbcGqzcMKcfDLi-Y&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27BQcpHNAGFKKXOR9GDHGq6vB8AuX1tknrhgd9AeXV69LBm6q_gxBOhydpYmLbyp0mx8q2ZZFcutuwH12QbDdtqT89roLsE1-WQe8Jfokj_4ovz-Gz3ogpR&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsJ1KW8mwKgApna4n6O9FYV5ddsqoHX2_rVNVrqbxlyt6ZDfnVEI0texNRA798MygDN4tv25K59tflvZyOGkKuX1OJk2iUyuxeD9e78AVztPICX-WDN-B8L&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25zKSYQXUul2C5XOvK6GGh_FWZU5DMFx0PjZHbOT5GwXOVL3jkzESDGOxDjEPErUM6D7UoZMgonWrELoeLUry9mYvs51MmajQBhbBnRrbgx0yZKyMJyX_Qr&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluMYYyXQntlzu5tgs6toeAQr_FJd54_6cKtYWH5gTul67kAyNlnJB9f4dla_HCPzRHVLXOI9oBlbAeuKTnWt3iD6ArEm9dvqlv_ebVQVRWKmw==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25zKSYQXUul2C5XOvK6GGh_FWZU5DMFx0PjZHbOT5GwXAW-l_AEzuPgI1isoivgHORYTtLW8qEnzeNSFnnS4fiBcvamdqp-5ica9ew4V1WEhQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluMYYyXQntlzu5tgs6toeAQr_FJd54_6cKtYWH5gTul67kAyNlnJB9fniZQ3z7Q6tWxzBjd8xyX50DIdm5o8uiUN5JIR2k-vkuCt8A2NWTqRA==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25zKSYQXUul2C5XOvK6GGh_FWZU5DMFx0PjZHbOT5GwXAW-l_AEzuPgAQaHQ2j_Bm_cHTWw1nVCet9hJ79Ne8YQnYOADwdlPxg722RWNETW_A==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluMYYyXQntlzu5tgs6toeAQr_FJd54_6cKtYWH5gTul67kAyNlnJB9fti6yF7HJzbbSmRAWj7QfxBenFCoxhjVhGmjK1iOR3Mo4YtHONDTJaQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26vPtm_Mna_Rgz0XAPrebvf2PQ_KQLpnpfENQ9cD9g-YASibk3HrSv8AxWNT1OA_A9l5Kl6vLs2qqEtvTHKoEhC-D7gyZm1CTyK2r_BWSVNhw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluMYYyXQntlzu5tgs6toeAQr_FJd54_6cKtYWH5gTul62fDfUbsvFuDv3M_ItwbwpvhpY2TvnNxgLTMGi_0R8sWfhMRw_7jeLhOazVK1klDkwanHJlGWHYA&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26vPtm_Mna_Rgz0XAPrebvf2PQ_KQLpnpfENQ9cD9g-YGAdu7avVjwq_5cjLY-oQyIwL5N32RFOF4GecDueQULbw2mhFZ2fBoFeboJe1njQc7ymT4Rj0rCS&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls5I57eZ0LU576PfmYs37F5pmDy7M5U_ALUScM8j1ppUDYXtYvitqMYJlIX6HYSY0rLzDoLDsfwSMq-R74L7xiE5VGVwDRh_q5UmLvA2izwr3QDpTtzDyU0&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26vPtm_Mna_Rgz0XAPrebvf2PQ_KQLpnpfENQ9cD9g-YLaVvJOkzU64zHS_ABpVTMWLqXjBLSaB7sARWVcNtUh6giPBSVdoPSDkbCksS_AVRPSUTr90p0Xx&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypls5I57eZ0LU576PfmYs37F5pmDy7M5U_ALUScM8j1ppUM2ki7NVxcqF731cqA-SYXOLdrqhFOkdAFce8ZIZsjLLBUDPb29YE7Z0jIa4T3Oee4klt0S5qxZN&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26vPtm_Mna_Rgz0XAPrebvf2PQ_KQLpnpfENQ9cD9g-YKLtrBTnXFwiHA3zRj7cfhGRJewHWBOWZNkcRBgXopkaGKoHslyGVYIBpx_gtvUj_-tAl5sWfMNw&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluuAjK1y9WDpIVu-pcOUkvEb3oUIHABCwAHmnKiOccVQ5rkIKl3mGS7dhNjx1IREzKSbgDnQ_7H-jN9ZAN3ak4bFvl15zl5SNmx2BTeG-12gaVqn_L3Q-Ix&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24XrbJioIeRznxsuMcS-jxP5CLsD54HheQfASTLpA0f4oBc2WG0HnIp6pVcXsZbmRxoWx7Hzu81lZ5EVDeRh1Dkd_jEI6hODlCpNJn2huIRPNI7_1iK1Pzb&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluuAjK1y9WDpIVu-pcOUkvEb3oUIHABCwAHmnKiOccVQ6mkVlcS7NAFCSBZ3HI3HqXfN1MwnPnQj7N9tfTOeeJZdYlnwcXU9ZInDq63p-mp4YjPRPF2aRXn&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24XrbJioIeRznxsuMcS-jxP5CLsD54HheQfASTLpA0f4kTmxYfMhfZAVHK7xE7tb2OO4PtMPWZQRGl9vwSHbvsWBdkfs9LPU4_2UYsPwHyXIEQJsHteztVz&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypluuAjK1y9WDpIVu-pcOUkvEb3oUIHABCwAHmnKiOccVQ6Rl1mhzgRZh1dl-bDDt3xWc2zKooNzaVhe9EC51X2F98cGHC_En9Q8KKUFCyxbrWA8wRoG1HpFn&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24XrbJioIeRznxsuMcS-jxP5CLsD54HheQfASTLpA0f4rSxDA_11NsSJJv6oQznojoki9dcXOGGkpXIrXFhXkOWVI5RK3bcl1FuuqZiBSlCnfkEy5esGIIG&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvKCN5w-KGTEu0MnktXW-S2TlU2UHHTx7kJiPcxGK-6N_TKLflFhnGmEk432MHKB-O18Cb-dQSO1R4c8ZIIYHpssniffu3LxWPCfGRO8nyGlrdoJqXqhGwf&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27UduJDCrl08G4FTTUMS6lKW90IB-QqpPTYO9wJxo2xcN2MZr-FmZZvH5Nymd6Cm0LwZW3lZAPN3U-mYGHBp0Tg2o-KEi4irnCOvyXsIOVdXsUMtIz8dJxc&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvKCN5w-KGTEu0MnktXW-S2TlU2UHHTx7kJiPcxGK-6N_TKLflFhnGmb1MXdarWpcYZbK8x00HddBQcxwcVdy-v2bE3MgZ2bsCsP4AkN8kT3ZomurCVSSrY&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27UduJDCrl08G4FTTUMS6lKW90IB-QqpPTYO9wJxo2xcN2MZr-FmZZvLP-Vx7dY5S92vLMNhoNadDwjQynrN3N9gE8FEWUmxzGNgfCLVx3RCPAoyiktskp0&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvKCN5w-KGTEu0MnktXW-S2TlU2UHHTx7kJiPcxGK-6Nxc9jd5sWcKKN60xqhyNqynz3Vxn2Sd7XRNwrkQJ7TzE58zDeWHqwO4-I212ZWZEe_AXUrRfLnxL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27UduJDCrl08G4FTTUMS6lKW90IB-QqpPTYO9wJxo2xcJ3xqLmx6dQsAnK6ZTZkdnCuVQTlRkvUSLfEuqlfusFlXBR097I9IV7o7Nm7k0ApHrajEu21CLDR&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvKCN5w-KGTEu0MnktXW-S2TlU2UHHTx7kJiPcxGK-6N9zYU2CB6Tx776_RX-H44DSpJIsbgJ2JuiGtwbX8m_e481p3i73BDPhrfaGKOmz5bWVFF0cCOUY6&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27UduJDCrl08G4FTTUMS6lKW90IB-QqpPTYO9wJxo2xcDNRAe-9RbFaW3KuXoTsm9vGBuqn0zk6jHX5g14Ta5XFJRoNvPMKylTPQ6b1jB7Q08lJJL5wZjWo&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
